--- a/Mifos Automation Excels/Client/2540-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2540-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Newcreateloan1.xlsx
@@ -200,7 +200,7 @@
     <t>validaterepaymentschedule</t>
   </si>
   <si>
-    <t>2540-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST</t>
+    <t>2540-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-1st</t>
   </si>
 </sst>
 </file>
